--- a/Electricity_Market_Price.xlsx
+++ b/Electricity_Market_Price.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singh\Desktop\Master Thesis\Codes\Stochastic-2-stage-OPT\Summer_July_2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singh\Desktop\Master Thesis\Codes\Deterministic-OPT\Summer_July_2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B23077-AA18-4D07-AA61-A60475237151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DF4B22-AF62-4BA8-9EDB-62F675941C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1377,7 +1377,7 @@
   <dimension ref="A1:E626"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
